--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Zentai Szilvia</t>
   </si>
 </sst>
 </file>
@@ -99,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -388,7 +392,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,140 +404,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43599</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Zentai Szilvia</t>
+  </si>
+  <si>
+    <t>SzP_1</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -389,40 +392,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -433,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -445,7 +448,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -457,7 +460,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -469,14 +472,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>43599</v>
       </c>
       <c r="D6" s="1"/>
@@ -485,7 +488,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -497,7 +500,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -509,7 +512,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -521,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -533,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -544,6 +547,26 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>SzP_1</t>
+  </si>
+  <si>
+    <t>NP_1</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,12 +564,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>NP_1</t>
+  </si>
+  <si>
+    <t>SzP_2</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,13 +568,25 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -111,13 +111,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -401,37 +405,37 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -447,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -459,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -471,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -485,7 +489,7 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43599</v>
       </c>
       <c r="D6" s="1"/>
@@ -499,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -511,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -523,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -535,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -547,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -559,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -571,7 +575,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3">
+        <v>43602</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -598,5 +604,6 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyitrainé\Desktop\Egyetem\Projekt labor\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>SzP_2</t>
+  </si>
+  <si>
+    <t>Nyitrainé Tóth Anikó</t>
   </si>
 </sst>
 </file>
@@ -114,14 +117,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -405,37 +408,37 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -446,50 +449,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>43599</v>
       </c>
       <c r="D6" s="1"/>
@@ -498,84 +501,88 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43602</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>43602</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -584,12 +591,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>SzP_2</t>
+  </si>
+  <si>
+    <t>SzP_3</t>
   </si>
 </sst>
 </file>
@@ -114,14 +117,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -402,40 +405,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -451,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -463,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -475,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -489,7 +492,7 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>43599</v>
       </c>
       <c r="D6" s="1"/>
@@ -503,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -515,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -527,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -539,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -551,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -563,7 +566,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2">
+        <v>43602</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -575,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>43602</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -586,13 +591,27 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2">
+        <v>43602</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>SzP_3</t>
+  </si>
+  <si>
+    <t>Négyesi Péter</t>
+  </si>
+  <si>
+    <t>NP_2</t>
+  </si>
+  <si>
+    <t>NP_3</t>
   </si>
 </sst>
 </file>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,11 +616,47 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43600</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyitrainé\Desktop\Egyetem\Projekt labor\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -59,10 +59,19 @@
     <t>NP_1</t>
   </si>
   <si>
-    <t>SzP_2</t>
-  </si>
-  <si>
     <t>Nyitrainé Tóth Anikó</t>
+  </si>
+  <si>
+    <t>Szp_2</t>
+  </si>
+  <si>
+    <t>SzP_3</t>
+  </si>
+  <si>
+    <t>SzP_4</t>
+  </si>
+  <si>
+    <t>SzP_5</t>
   </si>
 </sst>
 </file>
@@ -405,21 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -435,7 +444,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -449,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -461,7 +470,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -473,7 +482,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -485,7 +494,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -501,12 +510,12 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>43602</v>
@@ -517,7 +526,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -529,7 +538,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -541,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -553,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -565,41 +574,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>43602</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
-        <v>43602</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>43603</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>43604</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
+        <v>43605</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyitrainé\Desktop\Egyetem\Projekt labor\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>NP_3</t>
+  </si>
+  <si>
+    <t>Nyitrainé Tóth Anikó</t>
   </si>
 </sst>
 </file>
@@ -417,18 +420,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -444,7 +447,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -458,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -470,7 +473,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -482,7 +485,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -494,7 +497,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -510,19 +513,23 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43602</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -534,7 +541,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -546,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -558,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -570,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -584,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -598,7 +605,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -612,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -628,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -644,7 +651,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EKE\EGER INFORMATIKA\2018-19-2\LMT_IF126G3 Projekt labor - Tajti Tibor\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>NP_3</t>
+  </si>
+  <si>
+    <t>JN_1</t>
+  </si>
+  <si>
+    <t>Jóna Nikolett</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -134,6 +140,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -414,16 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
@@ -657,6 +664,22 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyitrainé\Desktop\Egyetem\Projekt labor\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoklácsAnna\Desktop\projektlab\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Nyitrainé Tóth Anikó</t>
+  </si>
+  <si>
+    <t>Koklács Anna</t>
   </si>
 </sst>
 </file>
@@ -420,18 +423,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -447,7 +450,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -461,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -473,7 +476,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -485,7 +488,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -497,7 +500,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -513,7 +516,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -529,19 +532,23 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43602</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -553,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -565,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -577,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -591,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -605,7 +612,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -619,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -635,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -651,7 +658,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoklácsAnna\Desktop\projektlab\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Koklács Anna</t>
+  </si>
+  <si>
+    <t>SzP_4</t>
+  </si>
+  <si>
+    <t>SzP_5</t>
   </si>
 </sst>
 </file>
@@ -420,21 +426,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -450,7 +456,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -464,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -476,7 +482,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +494,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -500,7 +506,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -516,7 +522,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -532,7 +538,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -548,7 +554,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -560,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -572,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -584,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -598,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -612,7 +618,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -626,15 +632,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2">
-        <v>43600</v>
+        <v>43602</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -642,35 +646,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="2">
-        <v>43601</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>43602</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43602</v>
-      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Tesztdokumentáció/Tesztbeosztás táblázat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjLav_Lev_2019\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukeve\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10692A1B-70DB-4086-8E65-48EB53C20679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -84,12 +85,21 @@
   </si>
   <si>
     <t>SzP_5</t>
+  </si>
+  <si>
+    <t>UK_1</t>
+  </si>
+  <si>
+    <t>UK_2</t>
+  </si>
+  <si>
+    <t>Ungi Keve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,16 +145,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,296 +451,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>43599</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>43602</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>43602</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
         <v>43602</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
         <v>43602</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5">
         <v>43602</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
         <v>43602</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5">
         <v>43602</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>43600</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>43601</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>43602</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43633</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43633</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
